--- a/biology/Zoologie/Cococinel/Cococinel.xlsx
+++ b/biology/Zoologie/Cococinel/Cococinel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cococinel est une série télévisée d'animation franco-belge en 104 épisodes de 4 minutes, produite par Odec Kid Cartoons et diffusée à partir de 1992 sur TF1.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cococinel est une adorable petite coccinelle qui, tout au long de ses aventures, sait familiariser les jeunes enfants à la vie de la nature et leur montrer que la protéger est aujourd'hui une priorité absolue. De plus les humains ont le visage non visible. La série est aventureuse et a assez d'action , Cococinel trouve un trèfle magique mystérieux et avec lui elle est chargée de pouvoirs .. elle est une adorable héroïne et leader de sa ville Cocoland.
 </t>
@@ -543,7 +557,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cococinel : héroïne de la série
 Oscarabus : scarabée autobus qui conduit Cococinel et ses amis à l'école.
@@ -585,7 +601,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre : Cococinel
 Réalisateur : Raymond Burlet, Nicole GORGEON
@@ -627,7 +645,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sabrina Leurquin : Cococinel
 Catherine Conet : Ben-Oui, Coco bleu, Hirondella
@@ -665,7 +685,9 @@
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le trèfle magique
